--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\WebApp-TeluguHoroscope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA01634-2D5E-4384-BF1D-EEBEE9120A82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D024F-25F2-48FE-9CA3-74201BCDF22F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>URL</t>
   </si>
@@ -145,6 +145,42 @@
   </si>
   <si>
     <t>https://www.eenadu.net/graham/inner_page/12</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/01.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/02.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/03.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/04.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/05.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/06.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/07.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/08.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/09.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/10.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/WebApp-TeluguHoroscope/master/12.jpg</t>
   </si>
 </sst>
 </file>
@@ -513,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E520A6-B6CD-4558-97CE-36A2BAE21ED8}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -535,7 +571,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -543,7 +579,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -551,7 +587,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -559,7 +595,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -567,7 +603,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
@@ -575,7 +611,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -583,7 +619,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
@@ -591,7 +627,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
@@ -599,7 +635,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -607,7 +643,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -615,7 +651,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
@@ -623,37 +659,40 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{5A4EB6BA-2BE4-4D9D-81BF-4D212B466AC1}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{B8A87F02-1C5F-4A20-84EB-83536474B7ED}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{3F9B8BED-C285-459E-9AF3-01A883F8BFA4}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{5580DFAB-2797-453F-A62E-6668D2B3268E}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{F4F063F2-6995-4BD7-88E6-821D1DC302E4}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{5F5CF0B2-CD65-4DD2-ADD8-5996C2579D7F}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{EF0B1BD5-EC83-440D-B45B-8B115A6035E8}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{7D393E53-E824-48B0-95BA-C38100FEDF2B}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{8C16F1D2-45D5-429D-B9D3-83930098D1E0}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{51F45AF6-2F8E-4769-97F4-6FFB4F64760E}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{7B9BE0A0-F297-4F42-91D5-2C08324BCE0C}"/>
-    <hyperlink ref="B3" r:id="rId12" xr:uid="{1CDB4184-8FD9-4289-B8E5-896E9E0F9A8D}"/>
-    <hyperlink ref="B4" r:id="rId13" xr:uid="{50E91367-C277-4862-8CB9-1FB8AE76A1D3}"/>
-    <hyperlink ref="B5" r:id="rId14" xr:uid="{87B29DDA-2A10-4763-A807-43D2D51F7B35}"/>
-    <hyperlink ref="B6" r:id="rId15" xr:uid="{FF97C9F5-7D5A-482F-BEB0-59C01B75F5A4}"/>
-    <hyperlink ref="B7" r:id="rId16" xr:uid="{9754222F-26E8-46D3-AF20-ED3CE0BB6AEC}"/>
-    <hyperlink ref="B8" r:id="rId17" xr:uid="{C7351D3B-9442-4519-B8D3-B4D3FF9D1029}"/>
-    <hyperlink ref="B9" r:id="rId18" xr:uid="{52CC2C9F-551D-4803-B162-F4C43F884AF1}"/>
-    <hyperlink ref="B10" r:id="rId19" xr:uid="{9669AFF3-7ADB-428F-A228-926061882DFA}"/>
-    <hyperlink ref="B11" r:id="rId20" xr:uid="{882A09D1-2B41-47A9-81CF-6364052DF59C}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{9598083E-52DE-4F3F-8AAE-1C999AA72ED7}"/>
-    <hyperlink ref="B13" r:id="rId22" xr:uid="{64B9CE1A-A46B-476E-9321-AF2BF1DAF62D}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1CDB4184-8FD9-4289-B8E5-896E9E0F9A8D}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{50E91367-C277-4862-8CB9-1FB8AE76A1D3}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{87B29DDA-2A10-4763-A807-43D2D51F7B35}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{FF97C9F5-7D5A-482F-BEB0-59C01B75F5A4}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{9754222F-26E8-46D3-AF20-ED3CE0BB6AEC}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{C7351D3B-9442-4519-B8D3-B4D3FF9D1029}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{52CC2C9F-551D-4803-B162-F4C43F884AF1}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{9669AFF3-7ADB-428F-A228-926061882DFA}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{882A09D1-2B41-47A9-81CF-6364052DF59C}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{9598083E-52DE-4F3F-8AAE-1C999AA72ED7}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{64B9CE1A-A46B-476E-9321-AF2BF1DAF62D}"/>
+    <hyperlink ref="A3" r:id="rId12" xr:uid="{776AE9B9-2492-47BB-A68F-62CBDF87C51E}"/>
+    <hyperlink ref="A4" r:id="rId13" xr:uid="{7B51F220-7EF6-4D7A-A5EB-3785A3019324}"/>
+    <hyperlink ref="A5" r:id="rId14" xr:uid="{96A93119-07F7-431D-9FE5-90B4A610243D}"/>
+    <hyperlink ref="A6" r:id="rId15" xr:uid="{8AE3086D-F869-4036-A987-EEC4F7306861}"/>
+    <hyperlink ref="A7" r:id="rId16" xr:uid="{2AB9DC4B-7534-43AD-A454-D6624D4FD9B4}"/>
+    <hyperlink ref="A8" r:id="rId17" xr:uid="{E0BFC95F-50D8-4384-BBAB-279626F5A8B0}"/>
+    <hyperlink ref="A9" r:id="rId18" xr:uid="{A12C5DA6-AB43-4DEC-9354-CE67707FC802}"/>
+    <hyperlink ref="A10" r:id="rId19" xr:uid="{3723E63E-E0E9-40B2-8AC5-0F02F09E55E3}"/>
+    <hyperlink ref="A11" r:id="rId20" xr:uid="{7B872865-85DF-484A-B2F1-6A7F553A9F2E}"/>
+    <hyperlink ref="A12" r:id="rId21" xr:uid="{718D9E7A-F728-4ED9-A313-C7C1F26EB82E}"/>
+    <hyperlink ref="A13" r:id="rId22" xr:uid="{6BB78F30-D2D1-466B-A76D-6C5F55BC9E99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\WebApp-TeluguHoroscope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8D024F-25F2-48FE-9CA3-74201BCDF22F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611E3F5-87CB-4457-B5F0-E110147ED6F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
+    <workbookView xWindow="3555" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,84 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>URL</t>
   </si>
   <si>
     <t>MenuIcon</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/01.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/02.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/03.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/04.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/05.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/06.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/07.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/08.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/09.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/10.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/11.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/12.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/01data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/02data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/03data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/04data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/05data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/06data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/07data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/08data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/09data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/10data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/11data.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/indpDB/indpstudios-HaroScope/master/12data.png</t>
   </si>
   <si>
     <t>https://www.eenadu.net/graham/inner_page/1</t>
@@ -552,7 +479,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,98 +498,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,151 +623,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9042DE9-E60E-4FFF-A8E9-B7FFD098BF05}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{0A4452E1-0F6D-429B-8A03-D5E10C80B48E}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{A658A3E8-B437-4614-8B17-4C457DD8FE01}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{1776332A-B550-484D-895E-EA978767547D}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{ABA8D657-5E3E-4B37-872D-37A95FCA9B54}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{112DDA5B-192A-4B9E-BA4E-1987ACA44FF5}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{E59B32A1-8536-484A-82D4-EE48FE1300D8}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{D11B2089-4DC5-488F-8AD6-7DFF8F98A2FA}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{CC4D4A74-8A50-4578-B9E8-D735CB8E7A00}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{A5327034-A5D8-46E1-A73D-FE54059BD357}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{FF9740B9-C531-43A5-9C53-FCDE91BBCD2C}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{87345BB7-E444-416B-841F-48FDAD2EF0DE}"/>
-    <hyperlink ref="B3" r:id="rId12" xr:uid="{134D3CBF-F2E1-448D-A409-4E2A95969EDC}"/>
-    <hyperlink ref="B4" r:id="rId13" xr:uid="{4DD740CB-4768-484C-A5E1-E1B605DC81AF}"/>
-    <hyperlink ref="B5" r:id="rId14" xr:uid="{C515EB26-40DA-4444-AF17-705CC2A4BA77}"/>
-    <hyperlink ref="B6" r:id="rId15" xr:uid="{5848AB8F-DDEC-40FF-AC12-871C11562CAF}"/>
-    <hyperlink ref="B7" r:id="rId16" xr:uid="{B5D26DE5-2379-400C-BF6E-965EF2E7A113}"/>
-    <hyperlink ref="B8" r:id="rId17" xr:uid="{0E2BFC74-5FA4-472B-B2FF-1BFEC9A13813}"/>
-    <hyperlink ref="B9" r:id="rId18" xr:uid="{E2E91529-DC18-4C01-A85B-34EA98F5972F}"/>
-    <hyperlink ref="B10" r:id="rId19" xr:uid="{B7EDC1CA-90DA-4DCF-BBF7-35CEEB910A1E}"/>
-    <hyperlink ref="B11" r:id="rId20" xr:uid="{D9A62BEA-356C-4615-8EA4-9C390B61AC03}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{98D22EF9-47BF-4A59-B395-E028A3FC0311}"/>
-    <hyperlink ref="B13" r:id="rId22" xr:uid="{BE970287-6A7A-48A1-954C-9CEAB0FBA6D3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\WebApp-TeluguHoroscope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611E3F5-87CB-4457-B5F0-E110147ED6F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F6AA02-C0B2-4A8B-AAF2-3402695D4902}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F7E269C-0401-4F9A-B396-B01173B1F2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E520A6-B6CD-4558-97CE-36A2BAE21ED8}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,9 +591,6 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
